--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vtn-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vtn-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Vtn</t>
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H2">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I2">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J2">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N2">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q2">
-        <v>96.49377624784999</v>
+        <v>367.1963050617929</v>
       </c>
       <c r="R2">
-        <v>868.4439862306499</v>
+        <v>3304.766745556137</v>
       </c>
       <c r="S2">
-        <v>0.01643908599934268</v>
+        <v>0.05668769051463217</v>
       </c>
       <c r="T2">
-        <v>0.01643908599934268</v>
+        <v>0.05668769051463218</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H3">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I3">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J3">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q3">
-        <v>341.3567241364</v>
+        <v>784.9346535149157</v>
       </c>
       <c r="R3">
-        <v>3072.2105172276</v>
+        <v>7064.411881634242</v>
       </c>
       <c r="S3">
-        <v>0.05815496877351413</v>
+        <v>0.1211780513564145</v>
       </c>
       <c r="T3">
-        <v>0.05815496877351413</v>
+        <v>0.1211780513564145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H4">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I4">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J4">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N4">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q4">
-        <v>133.49184788558</v>
+        <v>505.1795891872551</v>
       </c>
       <c r="R4">
-        <v>1201.42663097022</v>
+        <v>4546.616302685296</v>
       </c>
       <c r="S4">
-        <v>0.02274223326036654</v>
+        <v>0.0779895217119272</v>
       </c>
       <c r="T4">
-        <v>0.02274223326036654</v>
+        <v>0.0779895217119272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H5">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I5">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J5">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N5">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q5">
-        <v>35.48406385454</v>
+        <v>73.26301265439645</v>
       </c>
       <c r="R5">
-        <v>319.35657469086</v>
+        <v>659.3671138895681</v>
       </c>
       <c r="S5">
-        <v>0.006045214520495537</v>
+        <v>0.01131032891745223</v>
       </c>
       <c r="T5">
-        <v>0.006045214520495537</v>
+        <v>0.01131032891745223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H6">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I6">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J6">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N6">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q6">
-        <v>100.18697552874</v>
+        <v>277.9660220216196</v>
       </c>
       <c r="R6">
-        <v>901.68277975866</v>
+        <v>2501.694198194577</v>
       </c>
       <c r="S6">
-        <v>0.01706827497869527</v>
+        <v>0.04291233765898958</v>
       </c>
       <c r="T6">
-        <v>0.01706827497869527</v>
+        <v>0.04291233765898959</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H7">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I7">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J7">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N7">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q7">
-        <v>98.78437514764001</v>
+        <v>354.2876016613982</v>
       </c>
       <c r="R7">
-        <v>889.05937632876</v>
+        <v>3188.588414952584</v>
       </c>
       <c r="S7">
-        <v>0.01682932207225714</v>
+        <v>0.05469484752242501</v>
       </c>
       <c r="T7">
-        <v>0.01682932207225714</v>
+        <v>0.05469484752242502</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>8.875596</v>
       </c>
       <c r="I8">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J8">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N8">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q8">
-        <v>72.28858844519333</v>
+        <v>119.6309918685827</v>
       </c>
       <c r="R8">
-        <v>650.59729600674</v>
+        <v>1076.678926817244</v>
       </c>
       <c r="S8">
-        <v>0.0123153882916682</v>
+        <v>0.01846860807018051</v>
       </c>
       <c r="T8">
-        <v>0.0123153882916682</v>
+        <v>0.01846860807018051</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>8.875596</v>
       </c>
       <c r="I9">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J9">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q9">
         <v>255.7283661561067</v>
@@ -1013,10 +1013,10 @@
         <v>2301.55529540496</v>
       </c>
       <c r="S9">
-        <v>0.04356696117803039</v>
+        <v>0.03947929289220481</v>
       </c>
       <c r="T9">
-        <v>0.04356696117803039</v>
+        <v>0.03947929289220482</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>8.875596</v>
       </c>
       <c r="I10">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J10">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N10">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q10">
-        <v>100.0057996259013</v>
+        <v>164.5853580037093</v>
       </c>
       <c r="R10">
-        <v>900.052196633112</v>
+        <v>1481.268222033384</v>
       </c>
       <c r="S10">
-        <v>0.01703740908906396</v>
+        <v>0.02540865392472873</v>
       </c>
       <c r="T10">
-        <v>0.01703740908906396</v>
+        <v>0.02540865392472874</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>8.875596</v>
       </c>
       <c r="I11">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J11">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N11">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q11">
-        <v>26.58298791991733</v>
+        <v>23.86877740954133</v>
       </c>
       <c r="R11">
-        <v>239.246891279256</v>
+        <v>214.818996685872</v>
       </c>
       <c r="S11">
-        <v>0.004528789747149578</v>
+        <v>0.003684856977324499</v>
       </c>
       <c r="T11">
-        <v>0.004528789747149578</v>
+        <v>0.0036848569773245</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>8.875596</v>
       </c>
       <c r="I12">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J12">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N12">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q12">
-        <v>75.055359248904</v>
+        <v>90.56014579072267</v>
       </c>
       <c r="R12">
-        <v>675.498233240136</v>
+        <v>815.0413121165041</v>
       </c>
       <c r="S12">
-        <v>0.01278674701501056</v>
+        <v>0.01398065679522715</v>
       </c>
       <c r="T12">
-        <v>0.01278674701501056</v>
+        <v>0.01398065679522715</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>8.875596</v>
       </c>
       <c r="I13">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J13">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N13">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q13">
-        <v>74.00459716201067</v>
+        <v>115.4253912940706</v>
       </c>
       <c r="R13">
-        <v>666.041374458096</v>
+        <v>1038.828521646636</v>
       </c>
       <c r="S13">
-        <v>0.01260773476175476</v>
+        <v>0.01781934831317947</v>
       </c>
       <c r="T13">
-        <v>0.01260773476175477</v>
+        <v>0.01781934831317948</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H14">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I14">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J14">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N14">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q14">
-        <v>1.489574327261111</v>
+        <v>4.091846509402223</v>
       </c>
       <c r="R14">
-        <v>13.40616894535</v>
+        <v>36.82661858462001</v>
       </c>
       <c r="S14">
-        <v>0.0002537701541015608</v>
+        <v>0.0006316984276825352</v>
       </c>
       <c r="T14">
-        <v>0.0002537701541015608</v>
+        <v>0.0006316984276825353</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H15">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I15">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J15">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q15">
-        <v>5.269523408488889</v>
+        <v>8.746907520088891</v>
       </c>
       <c r="R15">
-        <v>47.4257106764</v>
+        <v>78.72216768080001</v>
       </c>
       <c r="S15">
-        <v>0.0008977381946913738</v>
+        <v>0.001350345794943296</v>
       </c>
       <c r="T15">
-        <v>0.0008977381946913738</v>
+        <v>0.001350345794943296</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H16">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I16">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J16">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N16">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q16">
-        <v>2.060713522064444</v>
+        <v>5.629461163257779</v>
       </c>
       <c r="R16">
-        <v>18.54642169858</v>
+        <v>50.66515046932</v>
       </c>
       <c r="S16">
-        <v>0.0003510718320548736</v>
+        <v>0.0008690750636316873</v>
       </c>
       <c r="T16">
-        <v>0.0003510718320548737</v>
+        <v>0.0008690750636316875</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H17">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I17">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J17">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N17">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q17">
-        <v>0.5477674581711112</v>
+        <v>0.8164052809511112</v>
       </c>
       <c r="R17">
-        <v>4.92990712354</v>
+        <v>7.347647528560001</v>
       </c>
       <c r="S17">
-        <v>9.331997049619952E-05</v>
+        <v>0.0001260364803869139</v>
       </c>
       <c r="T17">
-        <v>9.331997049619952E-05</v>
+        <v>0.0001260364803869139</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H18">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I18">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J18">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N18">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q18">
-        <v>1.54658624086</v>
+        <v>3.097510190768889</v>
       </c>
       <c r="R18">
-        <v>13.91927616774</v>
+        <v>27.87759171692</v>
       </c>
       <c r="S18">
-        <v>0.0002634829437454433</v>
+        <v>0.0004781929900701945</v>
       </c>
       <c r="T18">
-        <v>0.0002634829437454433</v>
+        <v>0.0004781929900701946</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H19">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I19">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J19">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N19">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q19">
-        <v>1.524934300182222</v>
+        <v>3.947998566975556</v>
       </c>
       <c r="R19">
-        <v>13.72440870164</v>
+        <v>35.53198710278</v>
       </c>
       <c r="S19">
-        <v>0.0002597942279681645</v>
+        <v>0.0006094912117355302</v>
       </c>
       <c r="T19">
-        <v>0.0002597942279681645</v>
+        <v>0.0006094912117355303</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H20">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I20">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J20">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N20">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q20">
-        <v>532.6302254441143</v>
+        <v>507.8363368130645</v>
       </c>
       <c r="R20">
-        <v>4793.672028997029</v>
+        <v>4570.52703131758</v>
       </c>
       <c r="S20">
-        <v>0.09074112779496667</v>
+        <v>0.07839966986731786</v>
       </c>
       <c r="T20">
-        <v>0.09074112779496668</v>
+        <v>0.07839966986731786</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H21">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I21">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J21">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q21">
-        <v>1884.234569353236</v>
+        <v>1085.572849137374</v>
       </c>
       <c r="R21">
-        <v>16958.11112417912</v>
+        <v>9770.155642236361</v>
       </c>
       <c r="S21">
-        <v>0.3210061346233449</v>
+        <v>0.167590514541346</v>
       </c>
       <c r="T21">
-        <v>0.3210061346233449</v>
+        <v>0.167590514541346</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H22">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I22">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J22">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N22">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q22">
-        <v>736.8536686927737</v>
+        <v>698.6686643331328</v>
       </c>
       <c r="R22">
-        <v>6631.683018234964</v>
+        <v>6288.017978998195</v>
       </c>
       <c r="S22">
-        <v>0.1255334934499629</v>
+        <v>0.107860325580681</v>
       </c>
       <c r="T22">
-        <v>0.125533493449963</v>
+        <v>0.107860325580681</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H23">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I23">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J23">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N23">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q23">
-        <v>195.8663622197924</v>
+        <v>101.3235140370947</v>
       </c>
       <c r="R23">
-        <v>1762.797259978132</v>
+        <v>911.9116263338522</v>
       </c>
       <c r="S23">
-        <v>0.03336861814423305</v>
+        <v>0.01564230338489716</v>
       </c>
       <c r="T23">
-        <v>0.03336861814423305</v>
+        <v>0.01564230338489716</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H24">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I24">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J24">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N24">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q24">
-        <v>553.016095311388</v>
+        <v>384.4299205521794</v>
       </c>
       <c r="R24">
-        <v>4977.144857802492</v>
+        <v>3459.869284969614</v>
       </c>
       <c r="S24">
-        <v>0.09421415041829868</v>
+        <v>0.05934821255121094</v>
       </c>
       <c r="T24">
-        <v>0.09421415041829868</v>
+        <v>0.05934821255121094</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,10 +1954,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H25">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I25">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J25">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,400 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N25">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q25">
-        <v>545.2739653394569</v>
+        <v>489.9834647729724</v>
       </c>
       <c r="R25">
-        <v>4907.465688055112</v>
+        <v>4409.851182956751</v>
       </c>
       <c r="S25">
-        <v>0.09289516855878729</v>
+        <v>0.0756435471311815</v>
       </c>
       <c r="T25">
-        <v>0.09289516855878731</v>
+        <v>0.0756435471311815</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.585256</v>
+      </c>
+      <c r="I26">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J26">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>40.43592966666667</v>
+      </c>
+      <c r="N26">
+        <v>121.307789</v>
+      </c>
+      <c r="O26">
+        <v>0.1554054852307972</v>
+      </c>
+      <c r="P26">
+        <v>0.1554054852307972</v>
+      </c>
+      <c r="Q26">
+        <v>7.88845681766489</v>
+      </c>
+      <c r="R26">
+        <v>70.99611135898401</v>
+      </c>
+      <c r="S26">
+        <v>0.001217818350984155</v>
+      </c>
+      <c r="T26">
+        <v>0.001217818350984155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.585256</v>
+      </c>
+      <c r="I27">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J27">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>86.43758666666668</v>
+      </c>
+      <c r="N27">
+        <v>259.31276</v>
+      </c>
+      <c r="O27">
+        <v>0.3322014655986951</v>
+      </c>
+      <c r="P27">
+        <v>0.3322014655986951</v>
+      </c>
+      <c r="Q27">
+        <v>16.86270540739556</v>
+      </c>
+      <c r="R27">
+        <v>151.76434866656</v>
+      </c>
+      <c r="S27">
+        <v>0.002603261013786592</v>
+      </c>
+      <c r="T27">
+        <v>0.002603261013786592</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.585256</v>
+      </c>
+      <c r="I28">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J28">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>55.63075133333334</v>
+      </c>
+      <c r="N28">
+        <v>166.892254</v>
+      </c>
+      <c r="O28">
+        <v>0.2138030206298745</v>
+      </c>
+      <c r="P28">
+        <v>0.2138030206298745</v>
+      </c>
+      <c r="Q28">
+        <v>10.85274366744711</v>
+      </c>
+      <c r="R28">
+        <v>97.674693007024</v>
+      </c>
+      <c r="S28">
+        <v>0.001675444348905813</v>
+      </c>
+      <c r="T28">
+        <v>0.001675444348905814</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.585256</v>
+      </c>
+      <c r="I29">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J29">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>8.067777333333334</v>
+      </c>
+      <c r="N29">
+        <v>24.203332</v>
+      </c>
+      <c r="O29">
+        <v>0.03100650489691211</v>
+      </c>
+      <c r="P29">
+        <v>0.03100650489691212</v>
+      </c>
+      <c r="Q29">
+        <v>1.573905030332444</v>
+      </c>
+      <c r="R29">
+        <v>14.165145272992</v>
+      </c>
+      <c r="S29">
+        <v>0.0002429791368513198</v>
+      </c>
+      <c r="T29">
+        <v>0.00024297913685132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.585256</v>
+      </c>
+      <c r="I30">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J30">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>30.60982466666667</v>
+      </c>
+      <c r="N30">
+        <v>91.829474</v>
+      </c>
+      <c r="O30">
+        <v>0.1176412832440535</v>
+      </c>
+      <c r="P30">
+        <v>0.1176412832440535</v>
+      </c>
+      <c r="Q30">
+        <v>5.971527848371556</v>
+      </c>
+      <c r="R30">
+        <v>53.743750635344</v>
+      </c>
+      <c r="S30">
+        <v>0.0009218832485556417</v>
+      </c>
+      <c r="T30">
+        <v>0.000921883248555642</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.585256</v>
+      </c>
+      <c r="I31">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J31">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>39.01441366666666</v>
+      </c>
+      <c r="N31">
+        <v>117.043241</v>
+      </c>
+      <c r="O31">
+        <v>0.1499422403996675</v>
+      </c>
+      <c r="P31">
+        <v>0.1499422403996675</v>
+      </c>
+      <c r="Q31">
+        <v>7.611139894966222</v>
+      </c>
+      <c r="R31">
+        <v>68.500259054696</v>
+      </c>
+      <c r="S31">
+        <v>0.001175006221145957</v>
+      </c>
+      <c r="T31">
+        <v>0.001175006221145957</v>
       </c>
     </row>
   </sheetData>
